--- a/download/美制圆板牙.xlsx
+++ b/download/美制圆板牙.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>编号</t>
   </si>
@@ -65,6 +65,60 @@
   </si>
   <si>
     <t>成都测量有限公司</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>第一条记录测试</t>
+  </si>
+  <si>
+    <t>btw45</t>
+  </si>
+  <si>
+    <t>支</t>
+  </si>
+  <si>
+    <t>天工</t>
+  </si>
+  <si>
+    <t>铬钢</t>
+  </si>
+  <si>
+    <t>成都测量量具公司</t>
+  </si>
+  <si>
+    <t>wer123</t>
+  </si>
+  <si>
+    <t>wer123-tw</t>
+  </si>
+  <si>
+    <t>wer123-tr</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>23UN3232</t>
+  </si>
+  <si>
+    <t>哈尔滨测量量具公司</t>
+  </si>
+  <si>
+    <t>第一次添加测试</t>
+  </si>
+  <si>
+    <t>tet123</t>
+  </si>
+  <si>
+    <t>上工</t>
+  </si>
+  <si>
+    <t>锰钢</t>
+  </si>
+  <si>
+    <t>上海测量测具公司</t>
   </si>
 </sst>
 </file>
@@ -108,9 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -407,13 +464,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="17" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -452,10 +519,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
@@ -478,6 +545,207 @@
       </c>
       <c r="I2">
         <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>96</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>95</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>98</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>95</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>98</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>99</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/download/美制圆板牙.xlsx
+++ b/download/美制圆板牙.xlsx
@@ -52,73 +52,73 @@
     <t>3_103</t>
   </si>
   <si>
+    <t>btw45</t>
+  </si>
+  <si>
+    <t>支</t>
+  </si>
+  <si>
+    <t>天工</t>
+  </si>
+  <si>
+    <t>铬钢</t>
+  </si>
+  <si>
+    <t>成都测量量具公司</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>wer123</t>
+  </si>
+  <si>
+    <t>wer123-tw</t>
+  </si>
+  <si>
+    <t>wer123-tr</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>23UN3232</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>哈尔滨测量量具公司</t>
+  </si>
+  <si>
+    <t>第一次添加测试</t>
+  </si>
+  <si>
+    <t>tet123</t>
+  </si>
+  <si>
+    <t>上工</t>
+  </si>
+  <si>
+    <t>锰钢</t>
+  </si>
+  <si>
+    <t>上海测量测具公司</t>
+  </si>
+  <si>
     <t>1 1/16-12UN123</t>
   </si>
   <si>
     <t>台</t>
   </si>
   <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
     <t>成都测量有限公司</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>第一条记录测试</t>
-  </si>
-  <si>
-    <t>btw45</t>
-  </si>
-  <si>
-    <t>支</t>
-  </si>
-  <si>
-    <t>天工</t>
-  </si>
-  <si>
-    <t>铬钢</t>
-  </si>
-  <si>
-    <t>成都测量量具公司</t>
-  </si>
-  <si>
-    <t>wer123</t>
-  </si>
-  <si>
-    <t>wer123-tw</t>
-  </si>
-  <si>
-    <t>wer123-tr</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>23UN3232</t>
-  </si>
-  <si>
-    <t>哈尔滨测量量具公司</t>
-  </si>
-  <si>
-    <t>第一次添加测试</t>
-  </si>
-  <si>
-    <t>tet123</t>
-  </si>
-  <si>
-    <t>上工</t>
-  </si>
-  <si>
-    <t>锰钢</t>
-  </si>
-  <si>
-    <t>上海测量测具公司</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -541,45 +541,42 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
@@ -587,28 +584,28 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -619,106 +616,106 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I5">
         <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -727,25 +724,28 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
       <c r="H8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/download/美制圆板牙.xlsx
+++ b/download/美制圆板牙.xlsx
@@ -82,43 +82,43 @@
     <t>是</t>
   </si>
   <si>
+    <t>tet123</t>
+  </si>
+  <si>
+    <t>上工</t>
+  </si>
+  <si>
+    <t>锰钢</t>
+  </si>
+  <si>
+    <t>上海测量测具公司</t>
+  </si>
+  <si>
+    <t>1 1/16-12UN123</t>
+  </si>
+  <si>
+    <t>台</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>成都测量有限公司</t>
+  </si>
+  <si>
+    <t>第一条记录测试</t>
+  </si>
+  <si>
     <t>23UN3232</t>
   </si>
   <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
     <t>哈尔滨测量量具公司</t>
   </si>
   <si>
     <t>第一次添加测试</t>
-  </si>
-  <si>
-    <t>tet123</t>
-  </si>
-  <si>
-    <t>上工</t>
-  </si>
-  <si>
-    <t>锰钢</t>
-  </si>
-  <si>
-    <t>上海测量测具公司</t>
-  </si>
-  <si>
-    <t>1 1/16-12UN123</t>
-  </si>
-  <si>
-    <t>台</t>
-  </si>
-  <si>
-    <t>成都测量有限公司</t>
-  </si>
-  <si>
-    <t>第一条记录测试</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -669,30 +669,27 @@
         <v>25</v>
       </c>
       <c r="H6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -704,42 +701,45 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>17</v>
